--- a/data/asia-ttf spread LNG.xlsx
+++ b/data/asia-ttf spread LNG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{87CA0A28-56C7-BD46-9E66-43F9D1CF6A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06278A7-752B-8348-9682-CEDF103B7BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bloc_jkm_ttf_q1_22_spread" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -612,6 +612,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>JKM spot LNG M+1-TTF M+1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -625,7 +650,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -664,7 +689,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4071,10 +4096,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:t>Months</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="mmm\ yyyy" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4093,7 +4173,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4142,7 +4222,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4155,15 +4235,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1800"/>
                   <a:t>Price </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1800"/>
                   <a:t>($/mmbtu)</a:t>
                 </a:r>
               </a:p>
@@ -4182,7 +4262,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4214,7 +4294,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4241,39 +4321,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5209,11 +5258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O25" zoomScale="119" zoomScaleNormal="398" workbookViewId="0">
-      <selection activeCell="AH56" sqref="AH56"/>
+    <sheetView tabSelected="1" topLeftCell="R25" zoomScale="113" zoomScaleNormal="398" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
